--- a/data/trans_orig/LAWTONB_2R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>107231</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90384</v>
+        <v>90908</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124316</v>
+        <v>125025</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2873369270845704</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2421944646910714</v>
+        <v>0.2435971803787374</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3331192000535326</v>
+        <v>0.3350174498679321</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>194</v>
@@ -765,19 +765,19 @@
         <v>207673</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>184575</v>
+        <v>185792</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>228945</v>
+        <v>232506</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3533356827468889</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3140375751315332</v>
+        <v>0.3161069078394174</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3895289580398083</v>
+        <v>0.3955875367094072</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>310</v>
@@ -786,19 +786,19 @@
         <v>314904</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>287744</v>
+        <v>286879</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>348055</v>
+        <v>343583</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3277044796209246</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2994410439634697</v>
+        <v>0.2985405782105695</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3622034955121921</v>
+        <v>0.3575497164340446</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>265958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>248873</v>
+        <v>248164</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>282805</v>
+        <v>282281</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7126630729154296</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6668807999464674</v>
+        <v>0.6649825501320679</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7578055353089287</v>
+        <v>0.7564028196212627</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>380</v>
@@ -836,19 +836,19 @@
         <v>380076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>358804</v>
+        <v>355243</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>403174</v>
+        <v>401957</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6466643172531111</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6104710419601915</v>
+        <v>0.6044124632905927</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6859624248684667</v>
+        <v>0.6838930921605825</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>663</v>
@@ -857,19 +857,19 @@
         <v>646034</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>612883</v>
+        <v>617355</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>673194</v>
+        <v>674059</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6722955203790754</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6377965044878077</v>
+        <v>0.6424502835659553</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7005589560365303</v>
+        <v>0.7014594217894304</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>14188</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8508</v>
+        <v>8620</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22299</v>
+        <v>21732</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1610741489802905</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09658781340843105</v>
+        <v>0.09785909398621806</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2531624590324718</v>
+        <v>0.2467214258519652</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -982,19 +982,19 @@
         <v>13499</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7726</v>
+        <v>7435</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21641</v>
+        <v>21801</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2169824358922541</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1241889092476453</v>
+        <v>0.1195175578295972</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.347857325921712</v>
+        <v>0.3504247915319905</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -1003,19 +1003,19 @@
         <v>27687</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18882</v>
+        <v>19211</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38486</v>
+        <v>37956</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1842164014753289</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1256354076679163</v>
+        <v>0.1278219298130776</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2560672153430008</v>
+        <v>0.2525414389583529</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>73895</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>65784</v>
+        <v>66351</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79575</v>
+        <v>79463</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8389258510197094</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7468375409675286</v>
+        <v>0.7532785741480351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.903412186591569</v>
+        <v>0.9021409060137824</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -1053,19 +1053,19 @@
         <v>48713</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40571</v>
+        <v>40411</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>54486</v>
+        <v>54777</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7830175641077459</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6521426740782877</v>
+        <v>0.6495752084680095</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8758110907523546</v>
+        <v>0.8804824421704028</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>122</v>
@@ -1074,19 +1074,19 @@
         <v>122608</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>111809</v>
+        <v>112339</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>131413</v>
+        <v>131084</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8157835985246712</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7439327846569992</v>
+        <v>0.747458561041647</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8743645923320835</v>
+        <v>0.8721780701869224</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>10790</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4973</v>
+        <v>5491</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18250</v>
+        <v>18572</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.261924637776792</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1207258379928458</v>
+        <v>0.1332900808838285</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4430318976583525</v>
+        <v>0.4508306538622845</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1199,19 +1199,19 @@
         <v>11573</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6661</v>
+        <v>6837</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16921</v>
+        <v>16690</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4305101791141477</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2477880731057266</v>
+        <v>0.2543293267487091</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6294689110571248</v>
+        <v>0.6208885525542038</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1220,19 +1220,19 @@
         <v>22362</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14197</v>
+        <v>14145</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31333</v>
+        <v>31353</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3284939435591453</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2085477540686844</v>
+        <v>0.2077888896473283</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4602760545098985</v>
+        <v>0.4605587991800485</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>30404</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22944</v>
+        <v>22622</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36221</v>
+        <v>35703</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7380753622232079</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5569681023416477</v>
+        <v>0.5491693461377164</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8792741620071544</v>
+        <v>0.8667099191161715</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1270,19 +1270,19 @@
         <v>15308</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9960</v>
+        <v>10191</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20220</v>
+        <v>20044</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5694898208858523</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3705310889428753</v>
+        <v>0.3791114474457962</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7522119268942734</v>
+        <v>0.745670673251291</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>43</v>
@@ -1291,19 +1291,19 @@
         <v>45713</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>36742</v>
+        <v>36722</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>53878</v>
+        <v>53930</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6715060564408547</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5397239454901019</v>
+        <v>0.5394412008199515</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7914522459313159</v>
+        <v>0.7922111103526719</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>132209</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>113715</v>
+        <v>114256</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152169</v>
+        <v>153418</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.263119522862979</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.226313164836029</v>
+        <v>0.2273905489297035</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3028448168486079</v>
+        <v>0.3053305863903671</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>217</v>
@@ -1416,19 +1416,19 @@
         <v>232744</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>207572</v>
+        <v>209277</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>256014</v>
+        <v>259970</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3438677704819641</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3066771923813669</v>
+        <v>0.3091955160175304</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3782483052958333</v>
+        <v>0.384093332958462</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>356</v>
@@ -1437,19 +1437,19 @@
         <v>364953</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>334884</v>
+        <v>334693</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>399234</v>
+        <v>394645</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3094634848224977</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2839663798323573</v>
+        <v>0.2838048458762248</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3385321764295615</v>
+        <v>0.3346412183309902</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>370257</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>350297</v>
+        <v>349048</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>388751</v>
+        <v>388210</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.736880477137021</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.697155183151392</v>
+        <v>0.694669413609633</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.773686835163971</v>
+        <v>0.7726094510702965</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>444</v>
@@ -1487,19 +1487,19 @@
         <v>444098</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>420828</v>
+        <v>416872</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>469270</v>
+        <v>467565</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6561322295180358</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6217516947041667</v>
+        <v>0.6159066670415385</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6933228076186331</v>
+        <v>0.6908044839824696</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>828</v>
@@ -1508,19 +1508,19 @@
         <v>814355</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>780074</v>
+        <v>784663</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>844424</v>
+        <v>844615</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6905365151775023</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6614678235704385</v>
+        <v>0.6653587816690097</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7160336201676427</v>
+        <v>0.7161951541237752</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>127914</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>107527</v>
+        <v>109407</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>147908</v>
+        <v>148160</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3086733996348618</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2594768683830025</v>
+        <v>0.264013864953705</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.356922642832474</v>
+        <v>0.3575308560227851</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>238</v>
@@ -1872,19 +1872,19 @@
         <v>257932</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>230518</v>
+        <v>231498</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>281883</v>
+        <v>281244</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4064840543998679</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3632812709770745</v>
+        <v>0.364825862890363</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4442292980924308</v>
+        <v>0.4432214272564975</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>351</v>
@@ -1893,19 +1893,19 @@
         <v>385846</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>353221</v>
+        <v>353528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>416502</v>
+        <v>420106</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3678427368590965</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3367405898299388</v>
+        <v>0.3370324658276314</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3970683895945182</v>
+        <v>0.4005040985482541</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>286484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>266490</v>
+        <v>266238</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>306871</v>
+        <v>304991</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6913266003651382</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6430773571675258</v>
+        <v>0.6424691439772151</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7405231316169973</v>
+        <v>0.7359861350462951</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>358</v>
@@ -1943,19 +1943,19 @@
         <v>376613</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>352662</v>
+        <v>353301</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>404027</v>
+        <v>403047</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5935159456001321</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5557707019075694</v>
+        <v>0.5567785727435025</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6367187290229257</v>
+        <v>0.6351741371096371</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>623</v>
@@ -1964,19 +1964,19 @@
         <v>663096</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>632440</v>
+        <v>628836</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>695721</v>
+        <v>695414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6321572631409035</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6029316104054819</v>
+        <v>0.5994959014517459</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6632594101700612</v>
+        <v>0.6629675341723686</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>20015</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12211</v>
+        <v>12766</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30744</v>
+        <v>30324</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1686678110156722</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1028993181399034</v>
+        <v>0.1075838585779214</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2590789196112069</v>
+        <v>0.255541651422058</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -2089,19 +2089,19 @@
         <v>21153</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13369</v>
+        <v>13856</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30253</v>
+        <v>30815</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2546265774044454</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1609248107852592</v>
+        <v>0.1667919715233886</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3641664283281024</v>
+        <v>0.37092920173334</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -2110,19 +2110,19 @@
         <v>41168</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29966</v>
+        <v>29610</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54652</v>
+        <v>53600</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.204064877263098</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1485379834589459</v>
+        <v>0.1467743445622548</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2709060334749958</v>
+        <v>0.2656875472842746</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>98650</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>87921</v>
+        <v>88341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>106454</v>
+        <v>105899</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8313321889843278</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7409210803887928</v>
+        <v>0.744458348577942</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8971006818600963</v>
+        <v>0.8924161414220787</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>59</v>
@@ -2160,19 +2160,19 @@
         <v>61921</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52821</v>
+        <v>52259</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>69705</v>
+        <v>69218</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7453734225955545</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6358335716718978</v>
+        <v>0.6290707982666599</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8390751892147408</v>
+        <v>0.8332080284766115</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>146</v>
@@ -2181,19 +2181,19 @@
         <v>160571</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>147087</v>
+        <v>148139</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>171773</v>
+        <v>172129</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.795935122736902</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7290939665250042</v>
+        <v>0.7343124527157258</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.851462016541054</v>
+        <v>0.8532256554377453</v>
       </c>
     </row>
     <row r="9">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6046</v>
+        <v>6634</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07632111835967792</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2275192412363409</v>
+        <v>0.2496171206916632</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2306,19 +2306,19 @@
         <v>4423</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1100</v>
+        <v>1144</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9511</v>
+        <v>10157</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1988366325966705</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04943532425763567</v>
+        <v>0.05142913586140756</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4275327942824911</v>
+        <v>0.4565721902873432</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -2327,19 +2327,19 @@
         <v>6452</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2346</v>
+        <v>2892</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12923</v>
+        <v>12778</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1321475246515685</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04804887276218665</v>
+        <v>0.05923139191093243</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2647000197996901</v>
+        <v>0.2617357041993825</v>
       </c>
     </row>
     <row r="11">
@@ -2356,7 +2356,7 @@
         <v>24547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20529</v>
+        <v>19941</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>26575</v>
@@ -2365,7 +2365,7 @@
         <v>0.9236788816403221</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7724807587636594</v>
+        <v>0.7503828793083349</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2377,19 +2377,19 @@
         <v>17823</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12735</v>
+        <v>12089</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21146</v>
+        <v>21102</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8011633674033295</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5724672057175089</v>
+        <v>0.5434278097126569</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9505646757423644</v>
+        <v>0.9485708641385925</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -2398,19 +2398,19 @@
         <v>42369</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35898</v>
+        <v>36043</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46475</v>
+        <v>45929</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8678524753484315</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7352999802003102</v>
+        <v>0.7382642958006183</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9519511272378134</v>
+        <v>0.9407686080890688</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>149957</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>127740</v>
+        <v>127896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>172662</v>
+        <v>172620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2679534505116735</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.228255382775474</v>
+        <v>0.2285333646390411</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3085252517787235</v>
+        <v>0.308450760542425</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>260</v>
@@ -2523,19 +2523,19 @@
         <v>283509</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>256186</v>
+        <v>256436</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>310055</v>
+        <v>310887</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3831895491577403</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3462607773643596</v>
+        <v>0.3465980323107034</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4190695751478092</v>
+        <v>0.4201943494494489</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>393</v>
@@ -2544,19 +2544,19 @@
         <v>433465</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>400611</v>
+        <v>398452</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>467477</v>
+        <v>468147</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3335625463479366</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3082804263615408</v>
+        <v>0.3066191493684051</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3597354333788721</v>
+        <v>0.3602512859415721</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>409680</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>386975</v>
+        <v>387017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>431897</v>
+        <v>431741</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7320465494883265</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6914747482212765</v>
+        <v>0.691549239457575</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.771744617224526</v>
+        <v>0.7714666353609592</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>431</v>
@@ -2594,19 +2594,19 @@
         <v>456356</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>429810</v>
+        <v>428978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>483679</v>
+        <v>483429</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6168104508422597</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5809304248521908</v>
+        <v>0.579805650550551</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6537392226356404</v>
+        <v>0.6534019676892966</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>802</v>
@@ -2615,19 +2615,19 @@
         <v>866037</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>832025</v>
+        <v>831355</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>898891</v>
+        <v>901050</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6664374536520634</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.640264566621128</v>
+        <v>0.6397487140584279</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6917195736384594</v>
+        <v>0.6933808506315949</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>96349</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>82694</v>
+        <v>81199</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112142</v>
+        <v>112061</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2722470871373205</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2336651274807571</v>
+        <v>0.2294390622738479</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.316873530738744</v>
+        <v>0.3166458992918585</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>174</v>
@@ -2979,19 +2979,19 @@
         <v>214634</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>190096</v>
+        <v>190508</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>239680</v>
+        <v>240621</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3868966300414322</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3426651401576881</v>
+        <v>0.3434079137249873</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4320448715103352</v>
+        <v>0.4337411007486625</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>282</v>
@@ -3000,19 +3000,19 @@
         <v>310982</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>280242</v>
+        <v>281857</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>339087</v>
+        <v>339199</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3422432754355125</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3084125722267054</v>
+        <v>0.310190277028775</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3731734405011549</v>
+        <v>0.373297042202554</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>257552</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>241759</v>
+        <v>241840</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>271207</v>
+        <v>272702</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7277529128626795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6831264692612561</v>
+        <v>0.6833541007081414</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7663348725192428</v>
+        <v>0.7705609377261521</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>297</v>
@@ -3050,19 +3050,19 @@
         <v>340123</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>315077</v>
+        <v>314136</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>364661</v>
+        <v>364249</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6131033699585678</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5679551284896649</v>
+        <v>0.5662588992513377</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6573348598423122</v>
+        <v>0.6565920862750128</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>575</v>
@@ -3071,19 +3071,19 @@
         <v>597676</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>569571</v>
+        <v>569459</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>628416</v>
+        <v>626801</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6577567245644874</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.626826559498845</v>
+        <v>0.626702957797446</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6915874277732946</v>
+        <v>0.689809722971225</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>22876</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15577</v>
+        <v>15254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34236</v>
+        <v>32682</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1188184903885366</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08090785204256762</v>
+        <v>0.07923097215783087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1778193934386754</v>
+        <v>0.1697509656787565</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -3196,19 +3196,19 @@
         <v>54734</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41375</v>
+        <v>41398</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68932</v>
+        <v>70343</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.291024946287487</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2199951479598254</v>
+        <v>0.2201152683216144</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3665165570978214</v>
+        <v>0.3740186802219774</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>69</v>
@@ -3217,19 +3217,19 @@
         <v>77611</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61379</v>
+        <v>61589</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93722</v>
+        <v>95329</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2039132014979403</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1612657206240296</v>
+        <v>0.161819002960889</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2462450787356998</v>
+        <v>0.2504675385986362</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>169656</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>158296</v>
+        <v>159850</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>176955</v>
+        <v>177278</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8811815096114634</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8221806065613247</v>
+        <v>0.8302490343212433</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9190921479574327</v>
+        <v>0.9207690278421689</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>114</v>
@@ -3267,19 +3267,19 @@
         <v>133340</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>119142</v>
+        <v>117731</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>146699</v>
+        <v>146676</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.708975053712513</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6334834429021785</v>
+        <v>0.6259813197780227</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7800048520401748</v>
+        <v>0.7798847316783856</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>285</v>
@@ -3288,19 +3288,19 @@
         <v>302995</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>286884</v>
+        <v>285277</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>319227</v>
+        <v>319017</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7960867985020597</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7537549212643002</v>
+        <v>0.749532461401364</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8387342793759704</v>
+        <v>0.838180997039111</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>5118</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1798</v>
+        <v>1749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10951</v>
+        <v>11680</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1217785908523695</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04276932941864064</v>
+        <v>0.04160716352832566</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2605532366818512</v>
+        <v>0.2779115430083954</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -3413,19 +3413,19 @@
         <v>8137</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3404</v>
+        <v>3306</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15228</v>
+        <v>16170</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2416490807749903</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1010763888609029</v>
+        <v>0.09818531366604091</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4522257622541579</v>
+        <v>0.4801993996092276</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -3434,19 +3434,19 @@
         <v>13256</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6563</v>
+        <v>6519</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22054</v>
+        <v>21740</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1750989658197539</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08669194135323473</v>
+        <v>0.08611804568291255</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2913265723913152</v>
+        <v>0.2871721618360289</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>36911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31078</v>
+        <v>30349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40231</v>
+        <v>40280</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8782214091476306</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7394467633181502</v>
+        <v>0.7220884569916046</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9572306705813594</v>
+        <v>0.9583928364716744</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -3484,19 +3484,19 @@
         <v>25537</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18446</v>
+        <v>17504</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30270</v>
+        <v>30368</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7583509192250097</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5477742377458422</v>
+        <v>0.5198006003907722</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.898923611139097</v>
+        <v>0.9018146863339591</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>56</v>
@@ -3505,19 +3505,19 @@
         <v>62447</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53649</v>
+        <v>53963</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>69140</v>
+        <v>69184</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8249010341802461</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7086734276086849</v>
+        <v>0.7128278381639709</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9133080586467655</v>
+        <v>0.9138819543170873</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>124343</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105331</v>
+        <v>106689</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>143732</v>
+        <v>143380</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2113018576444223</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1789935662502262</v>
+        <v>0.181301749544559</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2442501797772285</v>
+        <v>0.2436509741247423</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>223</v>
@@ -3630,19 +3630,19 @@
         <v>277505</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>247304</v>
+        <v>249585</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>305761</v>
+        <v>306789</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3573771115792938</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3184839885356061</v>
+        <v>0.3214214725755891</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3937652435544313</v>
+        <v>0.3950892148440925</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>362</v>
@@ -3651,19 +3651,19 @@
         <v>401848</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>366188</v>
+        <v>367890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>437774</v>
+        <v>437218</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2944013775173749</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2682761114669475</v>
+        <v>0.2695224880549568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3207210599243435</v>
+        <v>0.3203136130543119</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>464120</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>444731</v>
+        <v>445083</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>483132</v>
+        <v>481774</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7886981423555777</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7557498202227716</v>
+        <v>0.7563490258752577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8210064337497738</v>
+        <v>0.818698250455441</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>431</v>
@@ -3701,19 +3701,19 @@
         <v>499000</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>470744</v>
+        <v>469716</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>529201</v>
+        <v>526920</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6426228884207063</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6062347564455685</v>
+        <v>0.6049107851559075</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6815160114643939</v>
+        <v>0.6785785274244109</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>916</v>
@@ -3722,19 +3722,19 @@
         <v>963120</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>927194</v>
+        <v>927750</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>998780</v>
+        <v>997078</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7055986224826252</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6792789400756564</v>
+        <v>0.6796863869456882</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7317238885330525</v>
+        <v>0.7304775119450432</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>107923</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93850</v>
+        <v>95608</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>121513</v>
+        <v>122111</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3769032861290108</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3277543819419734</v>
+        <v>0.3338952409440242</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4243642704189153</v>
+        <v>0.4264528283323504</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>537</v>
@@ -4086,19 +4086,19 @@
         <v>284413</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>266844</v>
+        <v>267644</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>299374</v>
+        <v>300352</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5310206467325024</v>
+        <v>0.5310206467325023</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4982181482490088</v>
+        <v>0.4997129589397568</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5589544861951893</v>
+        <v>0.5607814439048018</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>706</v>
@@ -4107,19 +4107,19 @@
         <v>392336</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>370338</v>
+        <v>369356</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>414844</v>
+        <v>414318</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4773301523368334</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4505672183809712</v>
+        <v>0.4493717087411426</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5047141845797746</v>
+        <v>0.5040740720544875</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>178419</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>164829</v>
+        <v>164231</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>192492</v>
+        <v>190734</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6230967138709892</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5756357295810848</v>
+        <v>0.5735471716676498</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6722456180580267</v>
+        <v>0.666104759055976</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>476</v>
@@ -4157,19 +4157,19 @@
         <v>251183</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>236222</v>
+        <v>235244</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>268752</v>
+        <v>267952</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4689793532674975</v>
+        <v>0.4689793532674976</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4410455138048104</v>
+        <v>0.4392185560951982</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.501781851750991</v>
+        <v>0.5002870410602426</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>730</v>
@@ -4178,19 +4178,19 @@
         <v>429602</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>407094</v>
+        <v>407620</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>451600</v>
+        <v>452582</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5226698476631666</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4952858154202255</v>
+        <v>0.4959259279455125</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5494327816190288</v>
+        <v>0.5506282912588573</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>49507</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39897</v>
+        <v>39710</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60100</v>
+        <v>61449</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1633034419611763</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1316051108057593</v>
+        <v>0.130989438223363</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1982477550035286</v>
+        <v>0.2026960351193893</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>126</v>
@@ -4303,19 +4303,19 @@
         <v>67532</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58067</v>
+        <v>57705</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78901</v>
+        <v>79720</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2449435403455202</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2106134958006387</v>
+        <v>0.2092988837510713</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2861794463320462</v>
+        <v>0.2891508735243588</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>199</v>
@@ -4324,19 +4324,19 @@
         <v>117039</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103915</v>
+        <v>101401</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133608</v>
+        <v>132053</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2021876230735182</v>
+        <v>0.2021876230735183</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1795164288890818</v>
+        <v>0.1751729095367687</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2308114050630574</v>
+        <v>0.2281254864297296</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>253650</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>243057</v>
+        <v>241708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>263260</v>
+        <v>263447</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8366965580388238</v>
+        <v>0.8366965580388237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8017522449964715</v>
+        <v>0.7973039648806106</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8683948891942408</v>
+        <v>0.8690105617766369</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>400</v>
@@ -4374,19 +4374,19 @@
         <v>208173</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>196804</v>
+        <v>195985</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>217638</v>
+        <v>218000</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.75505645965448</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7138205536679536</v>
+        <v>0.7108491264756409</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7893865041993614</v>
+        <v>0.7907011162489284</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>752</v>
@@ -4395,19 +4395,19 @@
         <v>461824</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>445255</v>
+        <v>446810</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>474948</v>
+        <v>477462</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7978123769264817</v>
+        <v>0.7978123769264818</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7691885949369427</v>
+        <v>0.7718745135702703</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8204835711109185</v>
+        <v>0.8248270904632314</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>16572</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11539</v>
+        <v>11098</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24959</v>
+        <v>23543</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1415001005727409</v>
+        <v>0.1415001005727408</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09852786443872695</v>
+        <v>0.09475654185521197</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2131126260442257</v>
+        <v>0.2010231529272207</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -4520,19 +4520,19 @@
         <v>16787</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12335</v>
+        <v>11988</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23055</v>
+        <v>22303</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2026022409312938</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1488770073942175</v>
+        <v>0.1446907059803797</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2782594810122047</v>
+        <v>0.2691775629649804</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -4541,19 +4541,19 @@
         <v>33359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25436</v>
+        <v>25100</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42422</v>
+        <v>41372</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1668166967644857</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1271985838436561</v>
+        <v>0.1255187043640511</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2121403914369547</v>
+        <v>0.2068898801235994</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>100546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92159</v>
+        <v>93575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>105579</v>
+        <v>106020</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8584998994272591</v>
+        <v>0.858499899427259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7868873739557743</v>
+        <v>0.7989768470727787</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.901472135561273</v>
+        <v>0.905243458144788</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>122</v>
@@ -4591,19 +4591,19 @@
         <v>66068</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59800</v>
+        <v>60552</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>70520</v>
+        <v>70867</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7973977590687061</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7217405189877956</v>
+        <v>0.7308224370350197</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8511229926057825</v>
+        <v>0.8553092940196202</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>263</v>
@@ -4612,19 +4612,19 @@
         <v>166614</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>157551</v>
+        <v>158601</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>174537</v>
+        <v>174873</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8331833032355141</v>
+        <v>0.8331833032355144</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7878596085630452</v>
+        <v>0.7931101198764005</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8728014161563437</v>
+        <v>0.8744812956359489</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>174002</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>154310</v>
+        <v>154922</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>194640</v>
+        <v>194841</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2462465738602788</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2183787108629661</v>
+        <v>0.2192445001900777</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2754534148387474</v>
+        <v>0.2757376160546482</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>693</v>
@@ -4737,19 +4737,19 @@
         <v>368731</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>346614</v>
+        <v>346384</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>389652</v>
+        <v>390247</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4123790721618871</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3876435933235822</v>
+        <v>0.3873862946128247</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4357762426799613</v>
+        <v>0.4364422025486182</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>959</v>
@@ -4758,19 +4758,19 @@
         <v>542733</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>515689</v>
+        <v>513862</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>573553</v>
+        <v>574208</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3390444978865023</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3221501416016384</v>
+        <v>0.3210088532916521</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3582974458095589</v>
+        <v>0.3587068685431967</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>532615</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>511977</v>
+        <v>511776</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>552307</v>
+        <v>551695</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7537534261397213</v>
+        <v>0.7537534261397212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7245465851612526</v>
+        <v>0.7242623839453515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.781621289137034</v>
+        <v>0.7807554998099221</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>998</v>
@@ -4808,19 +4808,19 @@
         <v>525425</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>504504</v>
+        <v>503909</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>547542</v>
+        <v>547772</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5876209278381129</v>
+        <v>0.5876209278381128</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5642237573200386</v>
+        <v>0.5635577974513817</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6123564066764179</v>
+        <v>0.6126137053871753</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1745</v>
@@ -4829,19 +4829,19 @@
         <v>1058040</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1027220</v>
+        <v>1026565</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1085084</v>
+        <v>1086911</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6609555021134979</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6417025541904412</v>
+        <v>0.6412931314568036</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6778498583983616</v>
+        <v>0.6789911467083479</v>
       </c>
     </row>
     <row r="15">
